--- a/bd/registros.xlsx
+++ b/bd/registros.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +422,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id_registro</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>id_usuario</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>accion</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>fecha_accion</t>
         </is>
@@ -492,6 +480,646 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>2026-02-06 17:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Agregó producto: @@=(&amp;$</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Agregó producto: Yuval</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:35:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Agregó producto: Yuval</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Agregó producto: Yuval</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Agregó producto: Yuval</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:08:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Agregó producto: Yuval</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:10:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:18:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:19:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:19:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:19:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Camisetaaaa (ID 2)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Restauró producto: Camisetaaaa (ID 2)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Camisetaaaa (ID 2)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Restauró producto: Camisetaaaa (ID 2)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Eliminó definitivamente el producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:28:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:33:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:33:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Agregó producto: Yuval</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:33:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Eliminó definitivamente el producto: Yuval (ID 4)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:33:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:13:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Eliminó producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:03:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>nico@gmail.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Restauró producto: Yuval (ID 3)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:03:43</t>
         </is>
       </c>
     </row>
